--- a/Test Case.xlsx
+++ b/Test Case.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24334"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\My Folder\sqa assignment\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASIF\Manual_Testing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD405DF9-B486-4772-9203-E6B7744DEF18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A27D1A1-8BEF-4806-BF7E-D66121C2A855}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{472CB4BF-3C7D-4B6E-9118-7B2F3FC513B4}"/>
   </bookViews>
@@ -331,7 +331,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -350,8 +350,14 @@
         <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="-0.24994659260841701"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="6">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -401,15 +407,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
@@ -424,7 +421,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -432,21 +429,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -485,91 +467,100 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -888,7 +879,7 @@
   <dimension ref="A1:J23"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="M6" sqref="M6"/>
+      <selection activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -902,502 +893,483 @@
     <col min="7" max="7" width="21" customWidth="1"/>
     <col min="8" max="8" width="29.77734375" customWidth="1"/>
     <col min="9" max="9" width="10.6640625" customWidth="1"/>
+    <col min="10" max="10" width="8.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="34" t="s">
+      <c r="B1" s="44" t="s">
         <v>65</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="46" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="46" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="45" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="47" t="s">
+      <c r="G1" s="48" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="45" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="7" t="s">
+      <c r="I1" s="47" t="s">
         <v>49</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="J1" s="46" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="28">
+      <c r="A2" s="33">
         <v>1</v>
       </c>
-      <c r="B2" s="35">
+      <c r="B2" s="28">
         <v>1</v>
       </c>
-      <c r="C2" s="38" t="s">
+      <c r="C2" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="30" t="s">
+      <c r="D2" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="27" t="s">
+      <c r="E2" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="F2" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="G2" s="9" t="s">
+      <c r="G2" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="H2" s="10" t="s">
+      <c r="H2" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="I2" s="11"/>
-      <c r="J2" s="12"/>
+      <c r="I2" s="6"/>
+      <c r="J2" s="7"/>
     </row>
     <row r="3" spans="1:10" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="29"/>
-      <c r="B3" s="35"/>
-      <c r="C3" s="44"/>
-      <c r="D3" s="30"/>
-      <c r="E3" s="27"/>
-      <c r="F3" s="22" t="s">
+      <c r="A3" s="34"/>
+      <c r="B3" s="49"/>
+      <c r="C3" s="35"/>
+      <c r="D3" s="26"/>
+      <c r="E3" s="25"/>
+      <c r="F3" s="40" t="s">
         <v>14</v>
       </c>
-      <c r="G3" s="48" t="s">
+      <c r="G3" s="19" t="s">
         <v>67</v>
       </c>
-      <c r="H3" s="24" t="s">
+      <c r="H3" s="42" t="s">
         <v>51</v>
       </c>
-      <c r="I3" s="11"/>
-      <c r="J3" s="15"/>
+      <c r="I3" s="6"/>
+      <c r="J3" s="10"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A4" s="29"/>
-      <c r="B4" s="35"/>
-      <c r="C4" s="39"/>
-      <c r="D4" s="30"/>
-      <c r="E4" s="27"/>
-      <c r="F4" s="23"/>
-      <c r="G4" s="49"/>
-      <c r="H4" s="25"/>
-      <c r="I4" s="11"/>
-      <c r="J4" s="15"/>
+      <c r="A4" s="34"/>
+      <c r="B4" s="29"/>
+      <c r="C4" s="32"/>
+      <c r="D4" s="26"/>
+      <c r="E4" s="25"/>
+      <c r="F4" s="41"/>
+      <c r="G4" s="20"/>
+      <c r="H4" s="43"/>
+      <c r="I4" s="6"/>
+      <c r="J4" s="10"/>
     </row>
     <row r="5" spans="1:10" ht="41.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="26">
+      <c r="A5" s="21">
         <v>2</v>
       </c>
-      <c r="B5" s="35">
+      <c r="B5" s="28">
         <v>2</v>
       </c>
-      <c r="C5" s="42" t="s">
+      <c r="C5" s="36" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="27" t="s">
+      <c r="D5" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="E5" s="27"/>
-      <c r="F5" s="16" t="s">
+      <c r="E5" s="25"/>
+      <c r="F5" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="G5" s="50" t="s">
+      <c r="G5" s="17" t="s">
         <v>68</v>
       </c>
-      <c r="H5" s="16" t="s">
+      <c r="H5" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="I5" s="11"/>
-      <c r="J5" s="15"/>
+      <c r="I5" s="6"/>
+      <c r="J5" s="10"/>
     </row>
     <row r="6" spans="1:10" ht="55.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="26"/>
-      <c r="B6" s="35"/>
-      <c r="C6" s="43"/>
-      <c r="D6" s="30"/>
-      <c r="E6" s="27"/>
-      <c r="F6" s="13" t="s">
+      <c r="A6" s="21"/>
+      <c r="B6" s="29"/>
+      <c r="C6" s="37"/>
+      <c r="D6" s="26"/>
+      <c r="E6" s="25"/>
+      <c r="F6" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="G6" s="14" t="s">
+      <c r="G6" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="H6" s="16" t="s">
+      <c r="H6" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="I6" s="11"/>
-      <c r="J6" s="15"/>
+      <c r="I6" s="6"/>
+      <c r="J6" s="10"/>
     </row>
     <row r="7" spans="1:10" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="26">
+      <c r="A7" s="21">
         <v>3</v>
       </c>
-      <c r="B7" s="35">
+      <c r="B7" s="28">
         <v>3</v>
       </c>
-      <c r="C7" s="40" t="s">
+      <c r="C7" s="38" t="s">
         <v>18</v>
       </c>
-      <c r="D7" s="27" t="s">
+      <c r="D7" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="E7" s="27"/>
-      <c r="F7" s="13" t="s">
+      <c r="E7" s="25"/>
+      <c r="F7" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="G7" s="14" t="s">
+      <c r="G7" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="H7" s="16" t="s">
+      <c r="H7" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="I7" s="11"/>
-      <c r="J7" s="15"/>
+      <c r="I7" s="6"/>
+      <c r="J7" s="10"/>
     </row>
     <row r="8" spans="1:10" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A8" s="26"/>
-      <c r="B8" s="35"/>
-      <c r="C8" s="41"/>
-      <c r="D8" s="30"/>
-      <c r="E8" s="27"/>
-      <c r="F8" s="13" t="s">
+      <c r="A8" s="21"/>
+      <c r="B8" s="29"/>
+      <c r="C8" s="39"/>
+      <c r="D8" s="26"/>
+      <c r="E8" s="25"/>
+      <c r="F8" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="G8" s="9"/>
-      <c r="H8" s="16" t="s">
+      <c r="G8" s="4"/>
+      <c r="H8" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="I8" s="11"/>
-      <c r="J8" s="15"/>
+      <c r="I8" s="6"/>
+      <c r="J8" s="10"/>
     </row>
     <row r="9" spans="1:10" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="26">
+      <c r="A9" s="21">
         <v>4</v>
       </c>
-      <c r="B9" s="35">
+      <c r="B9" s="28">
         <v>4</v>
       </c>
-      <c r="C9" s="38" t="s">
+      <c r="C9" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="D9" s="27" t="s">
+      <c r="D9" s="25" t="s">
         <v>42</v>
       </c>
-      <c r="E9" s="27"/>
-      <c r="F9" s="13" t="s">
+      <c r="E9" s="25"/>
+      <c r="F9" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="G9" s="48" t="s">
+      <c r="G9" s="19" t="s">
         <v>71</v>
       </c>
-      <c r="H9" s="16" t="s">
+      <c r="H9" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="I9" s="11"/>
-      <c r="J9" s="15"/>
+      <c r="I9" s="6"/>
+      <c r="J9" s="10"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A10" s="26"/>
-      <c r="B10" s="35"/>
-      <c r="C10" s="39"/>
-      <c r="D10" s="30"/>
-      <c r="E10" s="27"/>
-      <c r="F10" s="17" t="s">
+      <c r="A10" s="21"/>
+      <c r="B10" s="29"/>
+      <c r="C10" s="32"/>
+      <c r="D10" s="26"/>
+      <c r="E10" s="25"/>
+      <c r="F10" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="G10" s="49"/>
-      <c r="H10" s="16" t="s">
+      <c r="G10" s="20"/>
+      <c r="H10" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="I10" s="11"/>
-      <c r="J10" s="15"/>
+      <c r="I10" s="6"/>
+      <c r="J10" s="10"/>
     </row>
     <row r="11" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="26">
+      <c r="A11" s="21">
         <v>5</v>
       </c>
-      <c r="B11" s="35">
+      <c r="B11" s="28">
         <v>5</v>
       </c>
-      <c r="C11" s="38" t="s">
+      <c r="C11" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="D11" s="27" t="s">
+      <c r="D11" s="25" t="s">
         <v>43</v>
       </c>
-      <c r="E11" s="27"/>
-      <c r="F11" s="13" t="s">
+      <c r="E11" s="25"/>
+      <c r="F11" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="G11" s="14" t="s">
+      <c r="G11" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="H11" s="18" t="s">
+      <c r="H11" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="I11" s="11"/>
-      <c r="J11" s="15"/>
+      <c r="I11" s="6"/>
+      <c r="J11" s="10"/>
     </row>
     <row r="12" spans="1:10" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="26"/>
-      <c r="B12" s="35"/>
-      <c r="C12" s="39"/>
-      <c r="D12" s="30"/>
-      <c r="E12" s="27"/>
-      <c r="F12" s="19" t="s">
+      <c r="A12" s="21"/>
+      <c r="B12" s="29"/>
+      <c r="C12" s="32"/>
+      <c r="D12" s="26"/>
+      <c r="E12" s="25"/>
+      <c r="F12" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="G12" s="9"/>
-      <c r="H12" s="16" t="s">
+      <c r="G12" s="4"/>
+      <c r="H12" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="I12" s="11"/>
-      <c r="J12" s="15"/>
+      <c r="I12" s="6"/>
+      <c r="J12" s="10"/>
     </row>
     <row r="13" spans="1:10" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="26">
+      <c r="A13" s="21">
         <v>6</v>
       </c>
-      <c r="B13" s="35">
+      <c r="B13" s="28">
         <v>6</v>
       </c>
-      <c r="C13" s="36" t="s">
+      <c r="C13" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="D13" s="27" t="s">
+      <c r="D13" s="25" t="s">
         <v>44</v>
       </c>
-      <c r="E13" s="27"/>
-      <c r="F13" s="8" t="s">
+      <c r="E13" s="25"/>
+      <c r="F13" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="G13" s="9" t="s">
+      <c r="G13" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="H13" s="32" t="s">
+      <c r="H13" s="27" t="s">
         <v>60</v>
       </c>
-      <c r="I13" s="11"/>
-      <c r="J13" s="15"/>
+      <c r="I13" s="6"/>
+      <c r="J13" s="10"/>
     </row>
     <row r="14" spans="1:10" ht="41.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="26"/>
-      <c r="B14" s="35"/>
-      <c r="C14" s="37"/>
-      <c r="D14" s="30"/>
-      <c r="E14" s="27"/>
-      <c r="F14" s="8" t="s">
+      <c r="A14" s="21"/>
+      <c r="B14" s="29"/>
+      <c r="C14" s="23"/>
+      <c r="D14" s="26"/>
+      <c r="E14" s="25"/>
+      <c r="F14" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="G14" s="9"/>
-      <c r="H14" s="32"/>
-      <c r="I14" s="9"/>
-      <c r="J14" s="15"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="27"/>
+      <c r="I14" s="4"/>
+      <c r="J14" s="10"/>
     </row>
     <row r="15" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="31">
+      <c r="A15" s="24">
         <v>7</v>
       </c>
-      <c r="B15" s="35">
+      <c r="B15" s="28">
         <v>7</v>
       </c>
-      <c r="C15" s="36" t="s">
+      <c r="C15" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="D15" s="27" t="s">
+      <c r="D15" s="25" t="s">
         <v>45</v>
       </c>
-      <c r="E15" s="27"/>
-      <c r="F15" s="8" t="s">
+      <c r="E15" s="25"/>
+      <c r="F15" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="G15" s="9" t="s">
+      <c r="G15" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="H15" s="32" t="s">
+      <c r="H15" s="27" t="s">
         <v>61</v>
       </c>
-      <c r="I15" s="9"/>
-      <c r="J15" s="15"/>
+      <c r="I15" s="4"/>
+      <c r="J15" s="10"/>
     </row>
     <row r="16" spans="1:10" ht="41.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="31"/>
-      <c r="B16" s="35"/>
-      <c r="C16" s="37"/>
-      <c r="D16" s="30"/>
-      <c r="E16" s="27"/>
-      <c r="F16" s="8" t="s">
+      <c r="A16" s="24"/>
+      <c r="B16" s="29"/>
+      <c r="C16" s="23"/>
+      <c r="D16" s="26"/>
+      <c r="E16" s="25"/>
+      <c r="F16" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="G16" s="51">
+      <c r="G16" s="18">
         <v>12</v>
       </c>
-      <c r="H16" s="32"/>
-      <c r="I16" s="9"/>
-      <c r="J16" s="15"/>
+      <c r="H16" s="27"/>
+      <c r="I16" s="4"/>
+      <c r="J16" s="10"/>
     </row>
     <row r="17" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="31">
+      <c r="A17" s="24">
         <v>8</v>
       </c>
-      <c r="B17" s="35">
+      <c r="B17" s="28">
         <v>8</v>
       </c>
-      <c r="C17" s="36" t="s">
+      <c r="C17" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="D17" s="27" t="s">
+      <c r="D17" s="25" t="s">
         <v>46</v>
       </c>
-      <c r="E17" s="27"/>
-      <c r="F17" s="8" t="s">
+      <c r="E17" s="25"/>
+      <c r="F17" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="G17" s="9"/>
-      <c r="H17" s="32" t="s">
+      <c r="G17" s="4"/>
+      <c r="H17" s="27" t="s">
         <v>62</v>
       </c>
-      <c r="I17" s="9"/>
-      <c r="J17" s="15"/>
+      <c r="I17" s="4"/>
+      <c r="J17" s="10"/>
     </row>
     <row r="18" spans="1:10" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="31"/>
-      <c r="B18" s="35"/>
-      <c r="C18" s="37"/>
-      <c r="D18" s="30"/>
-      <c r="E18" s="27"/>
-      <c r="F18" s="8" t="s">
+      <c r="A18" s="24"/>
+      <c r="B18" s="29"/>
+      <c r="C18" s="23"/>
+      <c r="D18" s="26"/>
+      <c r="E18" s="25"/>
+      <c r="F18" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="G18" s="9"/>
-      <c r="H18" s="32"/>
-      <c r="I18" s="9"/>
-      <c r="J18" s="15"/>
+      <c r="G18" s="4"/>
+      <c r="H18" s="27"/>
+      <c r="I18" s="4"/>
+      <c r="J18" s="10"/>
     </row>
     <row r="19" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="31">
+      <c r="A19" s="24">
         <v>9</v>
       </c>
-      <c r="B19" s="35">
+      <c r="B19" s="28">
         <v>9</v>
       </c>
-      <c r="C19" s="36" t="s">
+      <c r="C19" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="D19" s="27" t="s">
+      <c r="D19" s="25" t="s">
         <v>47</v>
       </c>
-      <c r="E19" s="27"/>
-      <c r="F19" s="8" t="s">
+      <c r="E19" s="25"/>
+      <c r="F19" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="G19" s="9"/>
-      <c r="H19" s="32" t="s">
+      <c r="G19" s="4"/>
+      <c r="H19" s="27" t="s">
         <v>63</v>
       </c>
-      <c r="I19" s="9"/>
-      <c r="J19" s="15"/>
+      <c r="I19" s="4"/>
+      <c r="J19" s="10"/>
     </row>
     <row r="20" spans="1:10" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="31"/>
-      <c r="B20" s="35"/>
-      <c r="C20" s="37"/>
-      <c r="D20" s="30"/>
-      <c r="E20" s="27"/>
-      <c r="F20" s="20" t="s">
+      <c r="A20" s="24"/>
+      <c r="B20" s="29"/>
+      <c r="C20" s="23"/>
+      <c r="D20" s="26"/>
+      <c r="E20" s="25"/>
+      <c r="F20" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="G20" s="9"/>
-      <c r="H20" s="32"/>
-      <c r="I20" s="9"/>
-      <c r="J20" s="9"/>
+      <c r="G20" s="4"/>
+      <c r="H20" s="27"/>
+      <c r="I20" s="4"/>
+      <c r="J20" s="4"/>
     </row>
     <row r="21" spans="1:10" ht="55.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="31">
+      <c r="A21" s="24">
         <v>10</v>
       </c>
-      <c r="B21" s="35">
+      <c r="B21" s="28">
         <v>10</v>
       </c>
-      <c r="C21" s="45" t="s">
+      <c r="C21" s="28" t="s">
         <v>39</v>
       </c>
-      <c r="D21" s="33" t="s">
+      <c r="D21" s="30" t="s">
         <v>48</v>
       </c>
-      <c r="E21" s="27"/>
-      <c r="F21" s="8" t="s">
+      <c r="E21" s="25"/>
+      <c r="F21" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="G21" s="9" t="s">
+      <c r="G21" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="H21" s="21" t="s">
+      <c r="H21" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="I21" s="9"/>
-      <c r="J21" s="9"/>
+      <c r="I21" s="4"/>
+      <c r="J21" s="4"/>
     </row>
     <row r="22" spans="1:10" ht="55.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="31"/>
-      <c r="B22" s="35"/>
-      <c r="C22" s="46"/>
-      <c r="D22" s="33"/>
-      <c r="E22" s="27"/>
-      <c r="F22" s="8" t="s">
+      <c r="A22" s="24"/>
+      <c r="B22" s="29"/>
+      <c r="C22" s="29"/>
+      <c r="D22" s="30"/>
+      <c r="E22" s="25"/>
+      <c r="F22" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="G22" s="9" t="s">
+      <c r="G22" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="H22" s="21" t="s">
+      <c r="H22" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="I22" s="9"/>
-      <c r="J22" s="9"/>
+      <c r="I22" s="4"/>
+      <c r="J22" s="4"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="D23" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="49">
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="G9:G10"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="H13:H14"/>
-    <mergeCell ref="H15:H16"/>
-    <mergeCell ref="H17:H18"/>
-    <mergeCell ref="H19:H20"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="D21:D22"/>
-    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="D9:D10"/>
     <mergeCell ref="A11:A12"/>
     <mergeCell ref="E2:E22"/>
     <mergeCell ref="A2:A4"/>
@@ -1413,13 +1385,33 @@
     <mergeCell ref="A21:A22"/>
     <mergeCell ref="D2:D4"/>
     <mergeCell ref="D5:D6"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="H3:H4"/>
-    <mergeCell ref="G3:G4"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="H13:H14"/>
+    <mergeCell ref="H15:H16"/>
+    <mergeCell ref="H17:H18"/>
+    <mergeCell ref="H19:H20"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="C11:C12"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="J2" xr:uid="{F8BEB200-AEF8-4C41-A1F1-531B0B4C1615}">
